--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H2">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q2">
-        <v>1.42610959436</v>
+        <v>0.10171575722</v>
       </c>
       <c r="R2">
-        <v>12.83498634924</v>
+        <v>0.9154418149799999</v>
       </c>
       <c r="S2">
-        <v>0.1702695797241838</v>
+        <v>0.03069500427161605</v>
       </c>
       <c r="T2">
-        <v>0.1702695797241839</v>
+        <v>0.03069500427161605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H3">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N3">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q3">
-        <v>0.5448432481333334</v>
+        <v>0.01914376532288889</v>
       </c>
       <c r="R3">
-        <v>4.9035892332</v>
+        <v>0.172293887906</v>
       </c>
       <c r="S3">
-        <v>0.06505126341068809</v>
+        <v>0.005777059272045105</v>
       </c>
       <c r="T3">
-        <v>0.06505126341068809</v>
+        <v>0.005777059272045105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>4.340694</v>
       </c>
       <c r="I4">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J4">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>4.73814</v>
       </c>
       <c r="O4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q4">
         <v>2.28520176324</v>
@@ -694,10 +694,10 @@
         <v>20.56681586916</v>
       </c>
       <c r="S4">
-        <v>0.2728404221882096</v>
+        <v>0.6896107329019041</v>
       </c>
       <c r="T4">
-        <v>0.2728404221882096</v>
+        <v>0.6896107329019041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.340694</v>
       </c>
       <c r="I5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N5">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q5">
-        <v>0.8730582532000001</v>
+        <v>0.4300942888946667</v>
       </c>
       <c r="R5">
-        <v>7.857524278800001</v>
+        <v>3.870848600052</v>
       </c>
       <c r="S5">
-        <v>0.1042383155088488</v>
+        <v>0.1297905692848114</v>
       </c>
       <c r="T5">
-        <v>0.1042383155088488</v>
+        <v>0.1297905692848114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H6">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I6">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J6">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.73814</v>
       </c>
       <c r="O6">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P6">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q6">
-        <v>2.348966071979999</v>
+        <v>0.4019501041599999</v>
       </c>
       <c r="R6">
-        <v>21.14069464781999</v>
+        <v>3.617550937439999</v>
       </c>
       <c r="S6">
-        <v>0.2804535271652048</v>
+        <v>0.1212974321911824</v>
       </c>
       <c r="T6">
-        <v>0.2804535271652049</v>
+        <v>0.1212974321911824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H7">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I7">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J7">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N7">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O7">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P7">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q7">
-        <v>0.8974193213999999</v>
+        <v>0.07565040732977778</v>
       </c>
       <c r="R7">
-        <v>8.076773892599999</v>
+        <v>0.680853665968</v>
       </c>
       <c r="S7">
-        <v>0.1071468920028648</v>
+        <v>0.02282920207844099</v>
       </c>
       <c r="T7">
-        <v>0.1071468920028648</v>
+        <v>0.02282920207844099</v>
       </c>
     </row>
   </sheetData>
